--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,21 +527,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,51 +557,51 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -647,59 +647,119 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>37</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Check map to find Recommended Zones</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4-9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>40</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Extended flight distance detected</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0-3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>4-12</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,21 +527,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,51 +557,51 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -647,51 +647,51 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -700,66 +700,6 @@
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>40</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Extended flight distance detected</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0-3</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>40</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4-12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
